--- a/data/trans_orig/iP30KDA7_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA7_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64F8E369-C1A3-4D6B-9508-3EF14DA7D592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF458506-DA93-4F4E-9F03-F5BF4947D50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{567BA337-567D-4E29-BD5E-877BF1E8F238}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A62ED525-E5CF-4A49-836A-1C49DC15F26F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si toman legumbres más de una vez a la semana en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,28 +71,28 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
   </si>
   <si>
     <t>92,44%</t>
@@ -101,31 +101,31 @@
     <t>No</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>17,28%</t>
+    <t>17,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,214 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -756,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63CA46E-23E9-46E6-BECC-7C9004530454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081D39F0-9C71-4FB9-AA1B-34E45EDD9072}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -874,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7">
-        <v>36135</v>
+        <v>42465</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -889,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I4" s="7">
-        <v>42633</v>
+        <v>37915</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -907,7 +919,7 @@
         <v>142</v>
       </c>
       <c r="N4" s="7">
-        <v>78768</v>
+        <v>80379</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -925,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>7009</v>
+        <v>4030</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -940,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>3660</v>
+        <v>7370</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -958,7 +970,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="7">
-        <v>10668</v>
+        <v>11400</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -976,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1009,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1029,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D7" s="7">
-        <v>156057</v>
+        <v>144904</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1044,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="I7" s="7">
-        <v>144284</v>
+        <v>161682</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1062,7 +1074,7 @@
         <v>482</v>
       </c>
       <c r="N7" s="7">
-        <v>300341</v>
+        <v>306586</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1080,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>18660</v>
+        <v>14395</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1095,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I8" s="7">
-        <v>14481</v>
+        <v>20277</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1113,7 +1125,7 @@
         <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>33141</v>
+        <v>34673</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1131,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1164,7 +1176,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1184,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D10" s="7">
-        <v>181919</v>
+        <v>153045</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1199,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="I10" s="7">
-        <v>156818</v>
+        <v>190628</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1211,22 +1223,22 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>431</v>
       </c>
       <c r="N10" s="7">
-        <v>338737</v>
+        <v>343675</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1235,49 +1247,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20027</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>22</v>
       </c>
-      <c r="D11" s="7">
-        <v>20559</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>23</v>
-      </c>
       <c r="I11" s="7">
-        <v>19295</v>
+        <v>21862</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
       </c>
       <c r="N11" s="7">
-        <v>39854</v>
+        <v>41888</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1319,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1333,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>310</v>
+      </c>
+      <c r="D13" s="7">
+        <v>226416</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
         <v>307</v>
       </c>
-      <c r="D13" s="7">
-        <v>248727</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>310</v>
-      </c>
       <c r="I13" s="7">
-        <v>229935</v>
+        <v>257745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>617</v>
       </c>
       <c r="N13" s="7">
-        <v>478663</v>
+        <v>484161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7">
+        <v>47851</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>34</v>
       </c>
-      <c r="D14" s="7">
-        <v>40267</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="7">
-        <v>31</v>
-      </c>
       <c r="I14" s="7">
-        <v>29503</v>
+        <v>47254</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
       </c>
       <c r="N14" s="7">
-        <v>69770</v>
+        <v>95105</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1444,7 +1456,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1459,7 +1471,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1474,7 +1486,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1494,49 +1506,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>830</v>
+      </c>
+      <c r="D16" s="7">
+        <v>566831</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>842</v>
       </c>
-      <c r="D16" s="7">
-        <v>622839</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>830</v>
-      </c>
       <c r="I16" s="7">
-        <v>573670</v>
+        <v>647971</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1672</v>
       </c>
       <c r="N16" s="7">
-        <v>1196509</v>
+        <v>1214801</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>85</v>
+      </c>
+      <c r="D17" s="7">
+        <v>86303</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="7">
-        <v>86494</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="I17" s="7">
-        <v>66939</v>
+        <v>96762</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>183</v>
       </c>
       <c r="N17" s="7">
-        <v>153433</v>
+        <v>183066</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1629,7 +1641,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1643,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
